--- a/pred_ohlcv/54_21/2020-01-12 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BHP ohlcv.xlsx
@@ -1692,7 +1692,7 @@
         <v>2934.233782720001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4474.13378272</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4974.13378272</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>8211.109100000001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>14233.8125</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>15417.5784</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>15486.233</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>15486.233</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>15486.233</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>15486.233</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>20861.1867</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>20850.3867</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>20850.3867</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>21158.2524</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>21147.5524</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>21147.5524</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>21131.0524</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>21116.5524</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>22045.7524</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>22395.7524</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>22395.7524</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>22395.7524</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>22395.7524</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>22395.7524</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>22395.7524</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>16824.8402</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>16810.9402</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>16806.5402</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>17682.3191</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>16929.3128</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>18266.5888</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>18874.01194076999</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>22964.96919611</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>22964.96919611</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>22959.16919611</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>22959.16919611</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>22237.22789611</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>22237.22789611</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>23028.28659611</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>23190.48659611</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>23190.48659611</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>23903.98659611</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>23903.98659611</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>23903.98659611</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>23636.48659611</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>23919.08659611</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>23919.08659611</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>23919.08659611</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>23934.08659611</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>23934.08659611</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>25004.28659611</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>25720.78659611</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>25720.78659611</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>25717.28659611</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>25717.28659611</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>25717.28659611</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>25717.28659611</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>26228.28659611</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>26228.28659611</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>27131.28659611</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>27131.28659611</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>27465.98659611</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>27484.78659611</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>27484.78659611</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>27484.78659611</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>28797.48029611</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>28528.28029611</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>29953.98029611</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>29795.28029611</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>29795.28029611</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>30550.28029611</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>30550.28029611</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>30550.28029611</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>30761.08029611</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>30742.08029611</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>30742.08029611</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>30742.08029611</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>30742.08029611</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>31014.68029611</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>31014.68029611</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>30995.08029611</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>30995.08029611</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>30995.08029611</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>31418.08029611</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>31400.48029611</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>31418.18029611</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>31418.18029611</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>31418.18029611</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>31418.18029611</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>31398.28029611</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>31398.28029611</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>31402.88029611</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>31402.88029611</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>31833.68029611</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>31840.28029611</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>31840.28029611</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>31840.28029611</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>31840.28029611</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>31840.28029611</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>32118.08029611</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>32118.08029611</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>32111.78029611</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>32111.78029611</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>32111.78029611</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>32102.28029611</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>32102.28029611</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>32085.78029611</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>37150.48029611</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>37136.88029611</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>37446.88029611</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>37446.88029611</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>37446.88029611</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>37446.88029611</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>38251.58029611001</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>38358.48029611001</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>38358.48029611001</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>38358.48029611001</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>38358.48029611001</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>38358.48029611001</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>38328.18029611</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>38328.18029611</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>38328.18029611</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>45501.03799611</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>47170.63799611</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>47170.63799611</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>47168.13799611</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>48437.29289611</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>48437.29289611</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>48424.99289610999</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>50653.19289610999</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>50653.19289610999</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>50962.09289610999</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>50962.09289610999</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>50962.09289610999</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>50962.09289610999</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>50476.79289610999</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>50480.49289610999</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>50474.29289610999</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>50474.29289610999</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>50474.29289610999</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>50474.29289610999</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>50474.29289610999</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>50474.29289610999</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>50462.79289610999</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>50870.69289610999</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>50852.19289610999</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>51853.39289611</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>51853.39289611</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>51836.29289611</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>51836.29289611</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>51836.29289611</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>51825.59289611</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>51825.59289611</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>51811.39289611</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>51811.39289611</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>51791.49289611</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BHP ohlcv.xlsx
@@ -1614,7 +1614,7 @@
         <v>2322.136982720001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2934.233782720001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2934.233782720001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2934.233782720001</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2930.433782720001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2930.433782720001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3330.433782720001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3330.433782720001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3320.63378272</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3320.63378272</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3814.13378272</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4474.13378272</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4974.13378272</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5814.13378272</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5814.13378272</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5920.13378272</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>7457.409100000001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>7454.109100000001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>8211.109100000001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>8909.8091</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>14233.8125</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>15486.233</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>15486.233</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>15486.233</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>15486.233</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>19692.0349</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>20861.1867</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>20861.1867</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>20850.3867</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>20850.3867</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>21158.2524</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>21147.5524</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>21147.5524</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>21131.0524</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>21116.5524</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>22045.7524</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>22395.7524</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>22395.7524</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>22395.7524</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>22395.7524</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>22395.7524</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>22395.7524</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>16824.8402</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>17682.3191</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>16929.3128</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>18266.5888</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>18874.01194076999</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>20606.12734077</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>20606.12734077</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>20606.12734077</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>20606.12734077</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>21137.56624077</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>21137.56624077</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>22964.96919611</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>22964.96919611</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>22959.16919611</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>22959.16919611</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>22237.22789611</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>22237.22789611</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>25004.28659611</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>25554.78659611</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>25720.78659611</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>25720.78659611</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>25717.28659611</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>25717.28659611</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>25717.28659611</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>25717.28659611</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>26228.28659611</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>26228.28659611</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>26228.28659611</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>26228.28659611</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>27131.28659611</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>27131.28659611</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>27465.98659611</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>27484.78659611</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>27484.78659611</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>27484.78659611</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>27484.78659611</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>27484.78659611</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>27484.78659611</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>27484.78659611</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>28797.48029611</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>28528.28029611</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>29953.98029611</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>29795.28029611</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>29795.28029611</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>30550.28029611</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>30550.28029611</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>30550.28029611</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>30761.08029611</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>30742.08029611</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>30742.08029611</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>30742.08029611</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>30742.08029611</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>31014.68029611</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>31014.68029611</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>30995.08029611</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>30995.08029611</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>30995.08029611</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>31418.08029611</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>31400.48029611</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>31418.18029611</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>31418.18029611</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>31418.18029611</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>31418.18029611</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>31398.28029611</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>31398.28029611</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>31402.88029611</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>31402.88029611</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>31833.68029611</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>31840.28029611</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>31840.28029611</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>31840.28029611</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>31840.28029611</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>31840.28029611</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>31834.18029611</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>32118.08029611</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>32118.08029611</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>32111.78029611</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>32111.78029611</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>32111.78029611</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>32102.28029611</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>32102.28029611</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>32085.78029611</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>37150.48029611</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>37136.88029611</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>37446.88029611</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>37446.88029611</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>37446.88029611</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>37446.88029611</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>38410.68029611</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>38251.58029611001</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>38358.48029611001</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>38358.48029611001</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>38358.48029611001</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>38358.48029611001</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>38358.48029611001</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>38339.18029611</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>38328.18029611</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>38328.18029611</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>38328.18029611</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>45501.03799611</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>47170.63799611</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>47170.63799611</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>47168.13799611</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>48437.29289611</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>48437.29289611</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>48424.99289610999</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>50653.19289610999</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>50653.19289610999</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>50962.09289610999</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>50962.09289610999</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>50962.09289610999</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>50962.09289610999</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>50476.79289610999</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>50480.49289610999</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>50474.29289610999</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>50474.29289610999</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>50474.29289610999</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>50474.29289610999</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>50474.29289610999</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>50474.29289610999</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>50462.79289610999</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>50870.69289610999</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>50852.19289610999</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>51853.39289611</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>51853.39289611</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>51836.29289611</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>51836.29289611</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>51836.29289611</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>51825.59289611</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>51825.59289611</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>51811.39289611</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>51811.39289611</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>51791.49289611</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
